--- a/sample_inputs/single_session_batch.xlsx
+++ b/sample_inputs/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\sample_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4214E70-25DC-4E56-804F-FC7C47D2604D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390FFE7E-8C01-4369-BCE8-665BC2AE48BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="1290" windowWidth="28935" windowHeight="18780" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="270" windowWidth="16380" windowHeight="18780" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Parameter</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Allow Backsliding</t>
   </si>
   <si>
-    <t>__dump</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
     <t>Footprint</t>
   </si>
   <si>
@@ -150,12 +144,6 @@
     <t>CostCurves</t>
   </si>
   <si>
-    <t>Session Output Folder Name</t>
-  </si>
-  <si>
-    <t>Database Dump Folder Name</t>
-  </si>
-  <si>
     <t>Demanded Shares File</t>
   </si>
   <si>
@@ -190,6 +178,12 @@
   </si>
   <si>
     <t>single_session_batch</t>
+  </si>
+  <si>
+    <t>Context Folder Name</t>
+  </si>
+  <si>
+    <t>Context Name</t>
   </si>
 </sst>
 </file>
@@ -312,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,6 +366,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,8 +682,8 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -788,8 +785,13 @@
       <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -805,11 +807,14 @@
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
     </row>
-    <row r="5" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="14"/>
+    <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -825,69 +830,53 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
     </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-    </row>
-    <row r="7" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
+    <row r="6" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -906,32 +895,37 @@
       <c r="R8" s="8"/>
       <c r="S8" s="8"/>
     </row>
-    <row r="9" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+    <row r="9" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -948,32 +942,27 @@
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
     </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+    <row r="11" spans="1:33" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -983,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1010,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1037,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1058,13 +1047,13 @@
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1091,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1118,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1145,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1169,10 +1158,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1199,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1226,7 +1215,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1253,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1387,7 +1376,7 @@
     </row>
     <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
@@ -1441,7 +1430,7 @@
     </row>
     <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
@@ -1537,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1564,7 +1553,7 @@
         <v>26</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>

--- a/sample_inputs/single_session_batch.xlsx
+++ b/sample_inputs/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\sample_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390FFE7E-8C01-4369-BCE8-665BC2AE48BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6CF137-45FB-461A-B3DE-98DF66ABE64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="270" windowWidth="16380" windowHeight="18780" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="2220" windowWidth="24600" windowHeight="15765" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
   <si>
     <t>Parameter</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Cost Curve Frontier Affinity Factor</t>
   </si>
   <si>
-    <t>Num Tech Options per Vehicle</t>
-  </si>
-  <si>
     <t>CostClouds
 CostCurves</t>
   </si>
@@ -184,6 +181,12 @@
   </si>
   <si>
     <t>Context Name</t>
+  </si>
+  <si>
+    <t>Num Tech Options per ICE Vehicle</t>
+  </si>
+  <si>
+    <t>Num Tech Options per BEV Vehicle</t>
   </si>
 </sst>
 </file>
@@ -679,11 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -786,7 +789,7 @@
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -809,7 +812,7 @@
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -903,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -972,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -999,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1026,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1047,13 +1050,13 @@
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1080,7 +1083,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1107,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1134,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1158,10 +1161,10 @@
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1188,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1242,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
@@ -1374,9 +1377,9 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
@@ -1384,81 +1387,87 @@
       <c r="C28" s="8">
         <v>10</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-    </row>
-    <row r="29" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="8">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+    </row>
+    <row r="30" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="10" t="b">
+      <c r="C30" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C31" s="8">
         <v>0.75</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-    </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -1476,32 +1485,31 @@
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-    </row>
-    <row r="33" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+    </row>
+    <row r="33" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -1518,36 +1526,31 @@
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
     </row>
-    <row r="34" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
+    <row r="34" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>26</v>
@@ -1572,10 +1575,16 @@
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="8"/>
+    <row r="36" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -1593,6 +1602,27 @@
       <c r="R36" s="8"/>
       <c r="S36" s="8"/>
     </row>
+    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sample_inputs/single_session_batch.xlsx
+++ b/sample_inputs/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\sample_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6CF137-45FB-461A-B3DE-98DF66ABE64A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19CA8D-7B0C-412A-B4AC-C8CA8B146102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2220" windowWidth="24600" windowHeight="15765" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18570" yWindow="3855" windowWidth="19110" windowHeight="15615" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Vehicles File</t>
   </si>
   <si>
-    <t>Fuel Scenarios File</t>
-  </si>
-  <si>
     <t>Fuel Scenario Annual Data File</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
     <t>sample_inputs/fuels.csv</t>
   </si>
   <si>
-    <t>sample_inputs/fuel_scenarios.csv</t>
-  </si>
-  <si>
-    <t>sample_inputs/fuel_scenario_annual_data.csv</t>
-  </si>
-  <si>
     <t>sample_inputs/cost_curves.csv</t>
   </si>
   <si>
@@ -187,6 +178,15 @@
   </si>
   <si>
     <t>Num Tech Options per BEV Vehicle</t>
+  </si>
+  <si>
+    <t>sample_inputs/fuels_context.csv</t>
+  </si>
+  <si>
+    <t>sample_inputs/ghg_standards-fuels.csv</t>
+  </si>
+  <si>
+    <t>GHG Standards Fuels File</t>
   </si>
 </sst>
 </file>
@@ -685,8 +685,8 @@
   <dimension ref="A1:AG37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:C29"/>
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -789,7 +789,7 @@
     </row>
     <row r="4" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="5" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>3</v>
@@ -906,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1002,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1029,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1077,13 +1077,13 @@
     </row>
     <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1110,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1129,15 +1129,15 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1156,15 +1156,15 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1183,42 +1183,42 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-    </row>
-    <row r="21" spans="1:19" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="C21" s="10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -1237,32 +1237,32 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>23</v>
+    <row r="22" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
+      <c r="C22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
@@ -1293,7 +1293,7 @@
     </row>
     <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="28" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
@@ -1433,7 +1433,7 @@
     </row>
     <row r="30" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>11</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="35" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="36" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>

--- a/sample_inputs/single_session_batch.xlsx
+++ b/sample_inputs/single_session_batch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\GitHub\EPA_OMEGA_Model\sample_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E19CA8D-7B0C-412A-B4AC-C8CA8B146102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4BEA00-18BB-4EC2-81EE-49CA1B43489B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18570" yWindow="3855" windowWidth="19110" windowHeight="15615" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="2955" windowWidth="14160" windowHeight="16785" tabRatio="151" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sessions" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Parameter</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>GHG Standards Fuels File</t>
+  </si>
+  <si>
+    <t>ZEV Requirement File</t>
+  </si>
+  <si>
+    <t>sample_inputs/required_zev_share.csv</t>
+  </si>
+  <si>
+    <t>Iterate Producer-Consumer</t>
   </si>
 </sst>
 </file>
@@ -682,11 +691,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:C22"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,61 +1273,71 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="8" t="b">
+      <c r="C24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-    </row>
-    <row r="25" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -1335,32 +1354,27 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-    </row>
-    <row r="27" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+    <row r="26" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+    </row>
+    <row r="27" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -1377,16 +1391,11 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
     </row>
-    <row r="28" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="8">
-        <v>10</v>
-      </c>
+    <row r="28" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -1404,91 +1413,97 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
     </row>
-    <row r="29" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="8">
-        <v>10</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-    </row>
-    <row r="30" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+    </row>
+    <row r="31" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="10" t="b">
+      <c r="C31" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-    </row>
-    <row r="31" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="8">
         <v>0.75</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-    </row>
-    <row r="32" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -1506,106 +1521,106 @@
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-    </row>
-    <row r="34" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+    </row>
+    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+    </row>
+    <row r="35" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+    </row>
+    <row r="36" spans="1:19" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-    </row>
-    <row r="35" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+    </row>
+    <row r="37" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-    </row>
-    <row r="36" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-    </row>
-    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1623,6 +1638,54 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
+    <row r="38" spans="1:19" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+    </row>
+    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
